--- a/data_substrate_metabolism/connect_site_conservation_with_trait.xlsx
+++ b/data_substrate_metabolism/connect_site_conservation_with_trait.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xluhon/Documents/GitHub/R_code_for_graph_in_evolution/data_sucrose_metabolism/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xluhon/Documents/GitHub/R_code_for_graph_in_evolution/data_substrate_metabolism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99DB25C-D8CD-EF46-A385-352B4FC596DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1680A4A3-DA33-0A4A-8DDB-CBF000A7C717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="500" windowWidth="22840" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2042,7 +2042,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2173,6 +2173,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2487,7 +2495,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2530,8 +2538,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2545,8 +2554,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2580,6 +2590,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2900,11 +2911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="B459" sqref="B459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2954,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2974,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2994,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -3014,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3034,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3054,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3074,7 +3084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3114,7 +3124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3134,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3154,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3174,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3194,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3234,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3254,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3294,7 +3304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3314,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -3334,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -3354,7 +3364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3374,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3394,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -3414,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -3434,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3474,7 +3484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3494,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3514,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -3534,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -3554,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -3574,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -3594,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3614,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3634,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -3654,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3674,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -3694,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -3714,7 +3724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -3734,7 +3744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -3754,7 +3764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -3774,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3794,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>72</v>
       </c>
@@ -3814,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>74</v>
       </c>
@@ -3834,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -3894,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -3914,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -3934,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -3954,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -3974,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -3994,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -4014,7 +4024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -4034,7 +4044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -4094,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -4114,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -4154,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>100</v>
       </c>
@@ -4174,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -4194,7 +4204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -4214,7 +4224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -4234,7 +4244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -4254,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>108</v>
       </c>
@@ -4274,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -4294,7 +4304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -4334,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -4354,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>116</v>
       </c>
@@ -4374,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -4394,7 +4404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -4414,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -4434,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>122</v>
       </c>
@@ -4454,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -4474,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -4494,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>127</v>
       </c>
@@ -4514,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>128</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>131</v>
       </c>
@@ -4574,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>133</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>134</v>
       </c>
@@ -4614,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>136</v>
       </c>
@@ -4634,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>137</v>
       </c>
@@ -4654,7 +4664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>139</v>
       </c>
@@ -4674,7 +4684,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>142</v>
       </c>
@@ -4694,7 +4704,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>143</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>145</v>
       </c>
@@ -4734,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>147</v>
       </c>
@@ -4754,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -4774,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>150</v>
       </c>
@@ -4794,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>151</v>
       </c>
@@ -4814,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>153</v>
       </c>
@@ -4834,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>154</v>
       </c>
@@ -4854,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>155</v>
       </c>
@@ -4874,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>157</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>158</v>
       </c>
@@ -4914,7 +4924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>159</v>
       </c>
@@ -4934,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>160</v>
       </c>
@@ -4954,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>162</v>
       </c>
@@ -4974,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>163</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -5054,7 +5064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>171</v>
       </c>
@@ -5074,7 +5084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>173</v>
       </c>
@@ -5094,7 +5104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>174</v>
       </c>
@@ -5114,7 +5124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>175</v>
       </c>
@@ -5134,7 +5144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>177</v>
       </c>
@@ -5154,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>178</v>
       </c>
@@ -5174,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>180</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>182</v>
       </c>
@@ -5214,7 +5224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>183</v>
       </c>
@@ -5234,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>184</v>
       </c>
@@ -5254,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>185</v>
       </c>
@@ -5274,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>186</v>
       </c>
@@ -5294,7 +5304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>187</v>
       </c>
@@ -5314,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>188</v>
       </c>
@@ -5334,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>189</v>
       </c>
@@ -5354,7 +5364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>191</v>
       </c>
@@ -5374,7 +5384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>192</v>
       </c>
@@ -5394,7 +5404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>193</v>
       </c>
@@ -5414,7 +5424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>194</v>
       </c>
@@ -5434,7 +5444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>195</v>
       </c>
@@ -5454,7 +5464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>196</v>
       </c>
@@ -5474,7 +5484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>198</v>
       </c>
@@ -5494,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>199</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -5534,7 +5544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>202</v>
       </c>
@@ -5554,7 +5564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>203</v>
       </c>
@@ -5574,7 +5584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>204</v>
       </c>
@@ -5594,7 +5604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>205</v>
       </c>
@@ -5614,7 +5624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>207</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>208</v>
       </c>
@@ -5674,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>212</v>
       </c>
@@ -5694,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>214</v>
       </c>
@@ -5714,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>216</v>
       </c>
@@ -5734,7 +5744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>218</v>
       </c>
@@ -5754,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>219</v>
       </c>
@@ -5774,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>220</v>
       </c>
@@ -5794,7 +5804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>222</v>
       </c>
@@ -5814,7 +5824,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>223</v>
       </c>
@@ -5834,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>225</v>
       </c>
@@ -5854,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>226</v>
       </c>
@@ -5874,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>227</v>
       </c>
@@ -5894,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>228</v>
       </c>
@@ -5914,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>229</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>231</v>
       </c>
@@ -5954,7 +5964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>232</v>
       </c>
@@ -5974,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>233</v>
       </c>
@@ -5994,7 +6004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>234</v>
       </c>
@@ -6014,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>235</v>
       </c>
@@ -6034,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>236</v>
       </c>
@@ -6054,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>237</v>
       </c>
@@ -6074,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>238</v>
       </c>
@@ -6094,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>239</v>
       </c>
@@ -6114,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>240</v>
       </c>
@@ -6134,7 +6144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>241</v>
       </c>
@@ -6154,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>242</v>
       </c>
@@ -6174,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>243</v>
       </c>
@@ -6194,7 +6204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>245</v>
       </c>
@@ -6214,7 +6224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>246</v>
       </c>
@@ -6234,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>247</v>
       </c>
@@ -6254,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>249</v>
       </c>
@@ -6274,7 +6284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>250</v>
       </c>
@@ -6294,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>251</v>
       </c>
@@ -6314,7 +6324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>252</v>
       </c>
@@ -6334,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>253</v>
       </c>
@@ -6574,7 +6584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>266</v>
       </c>
@@ -6594,7 +6604,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>268</v>
       </c>
@@ -6614,7 +6624,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>269</v>
       </c>
@@ -6634,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>271</v>
       </c>
@@ -6654,7 +6664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>272</v>
       </c>
@@ -6674,7 +6684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>273</v>
       </c>
@@ -6734,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>278</v>
       </c>
@@ -6754,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>280</v>
       </c>
@@ -6774,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>281</v>
       </c>
@@ -6794,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>282</v>
       </c>
@@ -6814,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>284</v>
       </c>
@@ -6834,7 +6844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>285</v>
       </c>
@@ -6854,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>286</v>
       </c>
@@ -6874,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>288</v>
       </c>
@@ -6894,7 +6904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>289</v>
       </c>
@@ -6914,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>291</v>
       </c>
@@ -6934,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>292</v>
       </c>
@@ -6954,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>293</v>
       </c>
@@ -6974,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>294</v>
       </c>
@@ -6994,7 +7004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>296</v>
       </c>
@@ -7014,7 +7024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>297</v>
       </c>
@@ -7034,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>298</v>
       </c>
@@ -7054,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>300</v>
       </c>
@@ -7074,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>301</v>
       </c>
@@ -7094,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>303</v>
       </c>
@@ -7114,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>304</v>
       </c>
@@ -7134,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>305</v>
       </c>
@@ -7154,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>307</v>
       </c>
@@ -7174,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>308</v>
       </c>
@@ -7194,7 +7204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>310</v>
       </c>
@@ -7214,7 +7224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>311</v>
       </c>
@@ -7234,7 +7244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>312</v>
       </c>
@@ -7254,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>314</v>
       </c>
@@ -7274,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>316</v>
       </c>
@@ -7294,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>318</v>
       </c>
@@ -7314,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>319</v>
       </c>
@@ -7334,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>321</v>
       </c>
@@ -7374,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>324</v>
       </c>
@@ -7394,7 +7404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>326</v>
       </c>
@@ -7414,7 +7424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>327</v>
       </c>
@@ -7434,7 +7444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>328</v>
       </c>
@@ -7494,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>333</v>
       </c>
@@ -7514,7 +7524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>335</v>
       </c>
@@ -7534,7 +7544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>336</v>
       </c>
@@ -7554,7 +7564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>338</v>
       </c>
@@ -7574,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>340</v>
       </c>
@@ -7594,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>341</v>
       </c>
@@ -7614,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>342</v>
       </c>
@@ -7634,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>343</v>
       </c>
@@ -7654,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>345</v>
       </c>
@@ -7674,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>346</v>
       </c>
@@ -7694,7 +7704,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>349</v>
       </c>
@@ -7714,7 +7724,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>350</v>
       </c>
@@ -7734,7 +7744,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>351</v>
       </c>
@@ -7754,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>353</v>
       </c>
@@ -7774,7 +7784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>354</v>
       </c>
@@ -7794,7 +7804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>355</v>
       </c>
@@ -7814,7 +7824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>357</v>
       </c>
@@ -7834,7 +7844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>358</v>
       </c>
@@ -7854,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>359</v>
       </c>
@@ -7874,7 +7884,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>361</v>
       </c>
@@ -7894,7 +7904,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>362</v>
       </c>
@@ -7914,7 +7924,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>364</v>
       </c>
@@ -7934,7 +7944,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>366</v>
       </c>
@@ -7954,7 +7964,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>367</v>
       </c>
@@ -7974,7 +7984,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>368</v>
       </c>
@@ -7994,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>370</v>
       </c>
@@ -8014,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>371</v>
       </c>
@@ -8034,7 +8044,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>373</v>
       </c>
@@ -8054,7 +8064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>374</v>
       </c>
@@ -8074,7 +8084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>376</v>
       </c>
@@ -8094,7 +8104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>377</v>
       </c>
@@ -8114,7 +8124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>379</v>
       </c>
@@ -8134,7 +8144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>380</v>
       </c>
@@ -8154,7 +8164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>382</v>
       </c>
@@ -8174,7 +8184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>383</v>
       </c>
@@ -8194,7 +8204,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>385</v>
       </c>
@@ -8214,7 +8224,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>387</v>
       </c>
@@ -8234,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>389</v>
       </c>
@@ -8254,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>390</v>
       </c>
@@ -8274,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>391</v>
       </c>
@@ -8294,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>392</v>
       </c>
@@ -8314,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>393</v>
       </c>
@@ -8334,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>395</v>
       </c>
@@ -8354,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>396</v>
       </c>
@@ -8374,7 +8384,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>398</v>
       </c>
@@ -8394,7 +8404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>400</v>
       </c>
@@ -8414,7 +8424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>401</v>
       </c>
@@ -8434,7 +8444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>402</v>
       </c>
@@ -8454,7 +8464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>403</v>
       </c>
@@ -8474,7 +8484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>405</v>
       </c>
@@ -8494,7 +8504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>406</v>
       </c>
@@ -8514,7 +8524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>407</v>
       </c>
@@ -8534,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>408</v>
       </c>
@@ -8554,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>409</v>
       </c>
@@ -8574,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>411</v>
       </c>
@@ -8594,7 +8604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>412</v>
       </c>
@@ -8614,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>413</v>
       </c>
@@ -8634,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>414</v>
       </c>
@@ -8654,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>415</v>
       </c>
@@ -8674,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>417</v>
       </c>
@@ -8694,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>418</v>
       </c>
@@ -8714,7 +8724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>419</v>
       </c>
@@ -8734,7 +8744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>420</v>
       </c>
@@ -8754,7 +8764,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>422</v>
       </c>
@@ -8774,7 +8784,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>423</v>
       </c>
@@ -8794,7 +8804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>424</v>
       </c>
@@ -8814,7 +8824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>426</v>
       </c>
@@ -8834,7 +8844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>427</v>
       </c>
@@ -8854,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>429</v>
       </c>
@@ -8874,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>430</v>
       </c>
@@ -8894,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>431</v>
       </c>
@@ -8914,7 +8924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>432</v>
       </c>
@@ -8934,7 +8944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>433</v>
       </c>
@@ -8954,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>434</v>
       </c>
@@ -8974,7 +8984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>435</v>
       </c>
@@ -8994,7 +9004,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>437</v>
       </c>
@@ -9014,7 +9024,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>438</v>
       </c>
@@ -9034,7 +9044,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>439</v>
       </c>
@@ -9054,7 +9064,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>441</v>
       </c>
@@ -9074,7 +9084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>443</v>
       </c>
@@ -9094,7 +9104,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>445</v>
       </c>
@@ -9114,7 +9124,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>446</v>
       </c>
@@ -9135,7 +9145,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="7" t="s">
         <v>448</v>
       </c>
       <c r="B312" s="5" t="s">
@@ -9174,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>451</v>
       </c>
@@ -9194,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>453</v>
       </c>
@@ -9214,7 +9224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>454</v>
       </c>
@@ -9234,7 +9244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>455</v>
       </c>
@@ -9254,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>457</v>
       </c>
@@ -9274,7 +9284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>459</v>
       </c>
@@ -9294,7 +9304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>461</v>
       </c>
@@ -9314,7 +9324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>463</v>
       </c>
@@ -9334,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>465</v>
       </c>
@@ -9354,7 +9364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>467</v>
       </c>
@@ -9374,7 +9384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>469</v>
       </c>
@@ -9394,7 +9404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>471</v>
       </c>
@@ -9414,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>473</v>
       </c>
@@ -9434,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>475</v>
       </c>
@@ -9454,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>477</v>
       </c>
@@ -9474,7 +9484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>479</v>
       </c>
@@ -9494,7 +9504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>481</v>
       </c>
@@ -9514,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>483</v>
       </c>
@@ -9534,7 +9544,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>485</v>
       </c>
@@ -9554,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>487</v>
       </c>
@@ -9574,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>489</v>
       </c>
@@ -9594,7 +9604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>491</v>
       </c>
@@ -9614,7 +9624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>493</v>
       </c>
@@ -9634,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>495</v>
       </c>
@@ -9654,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>497</v>
       </c>
@@ -9674,7 +9684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>499</v>
       </c>
@@ -9694,7 +9704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>501</v>
       </c>
@@ -9714,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>503</v>
       </c>
@@ -9734,7 +9744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>505</v>
       </c>
@@ -9754,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>506</v>
       </c>
@@ -9774,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>507</v>
       </c>
@@ -9794,7 +9804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>508</v>
       </c>
@@ -9814,7 +9824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>509</v>
       </c>
@@ -9834,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>510</v>
       </c>
@@ -9854,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>511</v>
       </c>
@@ -9874,7 +9884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>512</v>
       </c>
@@ -9894,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>513</v>
       </c>
@@ -9914,7 +9924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>514</v>
       </c>
@@ -9934,7 +9944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>515</v>
       </c>
@@ -9974,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>518</v>
       </c>
@@ -9994,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>520</v>
       </c>
@@ -10014,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>521</v>
       </c>
@@ -10034,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>522</v>
       </c>
@@ -10054,7 +10064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>523</v>
       </c>
@@ -10074,7 +10084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>525</v>
       </c>
@@ -10094,7 +10104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>526</v>
       </c>
@@ -10114,7 +10124,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>527</v>
       </c>
@@ -10134,7 +10144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>528</v>
       </c>
@@ -10154,7 +10164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>530</v>
       </c>
@@ -10174,7 +10184,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>531</v>
       </c>
@@ -10194,7 +10204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>532</v>
       </c>
@@ -10214,7 +10224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>534</v>
       </c>
@@ -10234,7 +10244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>535</v>
       </c>
@@ -10254,7 +10264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>537</v>
       </c>
@@ -10274,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>538</v>
       </c>
@@ -10294,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>539</v>
       </c>
@@ -10314,7 +10324,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>541</v>
       </c>
@@ -10334,7 +10344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>542</v>
       </c>
@@ -10354,7 +10364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>543</v>
       </c>
@@ -10374,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>545</v>
       </c>
@@ -10394,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>546</v>
       </c>
@@ -10414,7 +10424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>547</v>
       </c>
@@ -10434,7 +10444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>548</v>
       </c>
@@ -10454,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>549</v>
       </c>
@@ -10474,7 +10484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>550</v>
       </c>
@@ -10494,7 +10504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>552</v>
       </c>
@@ -10514,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>553</v>
       </c>
@@ -10534,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>554</v>
       </c>
@@ -10554,7 +10564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>556</v>
       </c>
@@ -10574,7 +10584,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>557</v>
       </c>
@@ -10594,7 +10604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>558</v>
       </c>
@@ -10614,7 +10624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>559</v>
       </c>
@@ -10634,7 +10644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>561</v>
       </c>
@@ -10654,7 +10664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>562</v>
       </c>
@@ -10674,7 +10684,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>563</v>
       </c>
@@ -10694,7 +10704,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>565</v>
       </c>
@@ -10714,7 +10724,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>566</v>
       </c>
@@ -10734,7 +10744,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>567</v>
       </c>
@@ -10754,7 +10764,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>568</v>
       </c>
@@ -10774,7 +10784,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>570</v>
       </c>
@@ -10794,7 +10804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>571</v>
       </c>
@@ -10814,7 +10824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>573</v>
       </c>
@@ -10834,7 +10844,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>575</v>
       </c>
@@ -10854,7 +10864,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>576</v>
       </c>
@@ -10874,7 +10884,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>577</v>
       </c>
@@ -10894,7 +10904,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>578</v>
       </c>
@@ -10914,7 +10924,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>579</v>
       </c>
@@ -10934,7 +10944,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>581</v>
       </c>
@@ -10954,7 +10964,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>582</v>
       </c>
@@ -10974,7 +10984,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>583</v>
       </c>
@@ -10994,7 +11004,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>584</v>
       </c>
@@ -11014,7 +11024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>586</v>
       </c>
@@ -11034,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>587</v>
       </c>
@@ -11054,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>589</v>
       </c>
@@ -11074,7 +11084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>591</v>
       </c>
@@ -11094,7 +11104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>592</v>
       </c>
@@ -11114,7 +11124,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>594</v>
       </c>
@@ -11134,7 +11144,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>596</v>
       </c>
@@ -11154,7 +11164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>598</v>
       </c>
@@ -11174,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>599</v>
       </c>
@@ -11194,7 +11204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>600</v>
       </c>
@@ -11214,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>601</v>
       </c>
@@ -11234,7 +11244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>603</v>
       </c>
@@ -11254,7 +11264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>604</v>
       </c>
@@ -11274,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>606</v>
       </c>
@@ -11294,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>607</v>
       </c>
@@ -11314,7 +11324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>609</v>
       </c>
@@ -11334,7 +11344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>610</v>
       </c>
@@ -11354,7 +11364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>611</v>
       </c>
@@ -11374,7 +11384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>612</v>
       </c>
@@ -11394,7 +11404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>614</v>
       </c>
@@ -11414,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>615</v>
       </c>
@@ -11434,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>617</v>
       </c>
@@ -11454,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>619</v>
       </c>
@@ -11474,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>620</v>
       </c>
@@ -11494,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>622</v>
       </c>
@@ -11514,7 +11524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>623</v>
       </c>
@@ -11534,7 +11544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>625</v>
       </c>
@@ -11554,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>626</v>
       </c>
@@ -11574,7 +11584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>628</v>
       </c>
@@ -11594,7 +11604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>629</v>
       </c>
@@ -11614,7 +11624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>630</v>
       </c>
@@ -11634,7 +11644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>632</v>
       </c>
@@ -11654,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>634</v>
       </c>
@@ -11674,7 +11684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>635</v>
       </c>
@@ -11694,7 +11704,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>637</v>
       </c>
@@ -11714,7 +11724,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>638</v>
       </c>
@@ -11734,7 +11744,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>640</v>
       </c>
@@ -11754,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>642</v>
       </c>
@@ -11774,7 +11784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>643</v>
       </c>
@@ -11794,7 +11804,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>645</v>
       </c>
@@ -11814,7 +11824,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>646</v>
       </c>
@@ -11834,7 +11844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>648</v>
       </c>
@@ -11854,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>650</v>
       </c>
@@ -11874,7 +11884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>651</v>
       </c>
@@ -11894,7 +11904,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>653</v>
       </c>
@@ -11914,7 +11924,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>654</v>
       </c>
@@ -11934,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>656</v>
       </c>
@@ -11954,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>657</v>
       </c>
@@ -12014,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>348</v>
       </c>
@@ -12034,7 +12044,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="457" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>661</v>
       </c>
@@ -12054,7 +12064,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="458" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>662</v>
       </c>
@@ -12074,7 +12084,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>666</v>
       </c>
@@ -12094,7 +12104,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>429</v>
       </c>
@@ -12114,7 +12124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>670</v>
       </c>
@@ -12135,13 +12145,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F461" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="F1:F461" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="A312" r:id="rId1" xr:uid="{A76910A5-4770-7547-BAC1-3B3803F539C2}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>